--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll3-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll3-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H2">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I2">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J2">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>0.8682086368433334</v>
+        <v>0.206142592256</v>
       </c>
       <c r="R2">
-        <v>7.81387773159</v>
+        <v>1.855283330304</v>
       </c>
       <c r="S2">
-        <v>0.0046046787010468</v>
+        <v>0.002379497235365263</v>
       </c>
       <c r="T2">
-        <v>0.004919466698504951</v>
+        <v>0.002488562704134081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H3">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I3">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J3">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>10.20277023800067</v>
+        <v>3.128501342712</v>
       </c>
       <c r="R3">
-        <v>91.82493214200599</v>
+        <v>28.156512084408</v>
       </c>
       <c r="S3">
-        <v>0.05411196895876238</v>
+        <v>0.03611218921015118</v>
       </c>
       <c r="T3">
-        <v>0.05781120607234733</v>
+        <v>0.0377674098113505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H4">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I4">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J4">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>22.10934693278888</v>
+        <v>9.402266890928001</v>
       </c>
       <c r="R4">
-        <v>198.9841223951</v>
+        <v>84.620402018352</v>
       </c>
       <c r="S4">
-        <v>0.1172603388116699</v>
+        <v>0.1085300608102659</v>
       </c>
       <c r="T4">
-        <v>0.1252765652700759</v>
+        <v>0.1135045914723967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H5">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I5">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J5">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>8.638353958257332</v>
+        <v>2.92596426756</v>
       </c>
       <c r="R5">
-        <v>51.83012374954399</v>
+        <v>17.55578560536</v>
       </c>
       <c r="S5">
-        <v>0.04581484541355525</v>
+        <v>0.03377431034140846</v>
       </c>
       <c r="T5">
-        <v>0.03263124616532598</v>
+        <v>0.02354824871525914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H6">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I6">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J6">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>27.02102900987</v>
+        <v>6.591176019376001</v>
       </c>
       <c r="R6">
-        <v>243.18926108883</v>
+        <v>59.320584174384</v>
       </c>
       <c r="S6">
-        <v>0.1433102038865895</v>
+        <v>0.07608173034146234</v>
       </c>
       <c r="T6">
-        <v>0.1531072679220288</v>
+        <v>0.07956897523551267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H7">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I7">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J7">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>0.4469078579566668</v>
+        <v>0.3460536091235555</v>
       </c>
       <c r="R7">
-        <v>4.022170721610001</v>
+        <v>3.114482482112</v>
       </c>
       <c r="S7">
-        <v>0.002370244901439342</v>
+        <v>0.003994485550929153</v>
       </c>
       <c r="T7">
-        <v>0.002532281102974938</v>
+        <v>0.00417757483240734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H8">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I8">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J8">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
-        <v>5.251846156319334</v>
+        <v>5.251846156319333</v>
       </c>
       <c r="R8">
-        <v>47.26661540687401</v>
+        <v>47.266615406874</v>
       </c>
       <c r="S8">
-        <v>0.02785397784696529</v>
+        <v>0.06062188930857303</v>
       </c>
       <c r="T8">
-        <v>0.02975814933795263</v>
+        <v>0.06340052450798565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,13 +977,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H9">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I9">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J9">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>11.38072170587778</v>
+        <v>15.78367845257289</v>
       </c>
       <c r="R9">
-        <v>102.4264953529</v>
+        <v>142.053106073156</v>
       </c>
       <c r="S9">
-        <v>0.06035941663991153</v>
+        <v>0.1821904868410246</v>
       </c>
       <c r="T9">
-        <v>0.06448574577716502</v>
+        <v>0.190541280679827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,13 +1039,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H10">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I10">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J10">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>4.446567449262667</v>
+        <v>4.91184516443</v>
       </c>
       <c r="R10">
-        <v>26.679404695576</v>
+        <v>29.47107098658</v>
       </c>
       <c r="S10">
-        <v>0.02358305775537047</v>
+        <v>0.05669726892145084</v>
       </c>
       <c r="T10">
-        <v>0.01679683857928959</v>
+        <v>0.03953067809652214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,13 +1101,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H11">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I11">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J11">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>13.90899569773</v>
+        <v>11.06467239453911</v>
       </c>
       <c r="R11">
-        <v>125.18096127957</v>
+        <v>99.582051550852</v>
       </c>
       <c r="S11">
-        <v>0.07376850854093263</v>
+        <v>0.1277191534505012</v>
       </c>
       <c r="T11">
-        <v>0.07881151861540225</v>
+        <v>0.1335732259557366</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H12">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I12">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J12">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>0.2239422685283333</v>
+        <v>0.2502966646257778</v>
       </c>
       <c r="R12">
-        <v>2.015480416755</v>
+        <v>2.252669981632</v>
       </c>
       <c r="S12">
-        <v>0.001187712435003793</v>
+        <v>0.002889166256134773</v>
       </c>
       <c r="T12">
-        <v>0.001268907593937682</v>
+        <v>0.0030215926642823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H13">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I13">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J13">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>2.631661809629666</v>
+        <v>3.798600972212667</v>
       </c>
       <c r="R13">
-        <v>23.684956286667</v>
+        <v>34.187408749914</v>
       </c>
       <c r="S13">
-        <v>0.01395742517284663</v>
+        <v>0.04384712743114715</v>
       </c>
       <c r="T13">
-        <v>0.01491159162073225</v>
+        <v>0.0458568828687113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H14">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I14">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J14">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>5.702796652438888</v>
+        <v>11.41615624876844</v>
       </c>
       <c r="R14">
-        <v>51.32516987194999</v>
+        <v>102.745406238916</v>
       </c>
       <c r="S14">
-        <v>0.03024566350475597</v>
+        <v>0.1317763201440081</v>
       </c>
       <c r="T14">
-        <v>0.03231333694401044</v>
+        <v>0.1378163549528445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H15">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I15">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J15">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>2.228142522051333</v>
+        <v>3.55268209723</v>
       </c>
       <c r="R15">
-        <v>13.368855132308</v>
+        <v>21.31609258338</v>
       </c>
       <c r="S15">
-        <v>0.01181729826080715</v>
+        <v>0.04100849385842725</v>
       </c>
       <c r="T15">
-        <v>0.008416773320452701</v>
+        <v>0.02859209271943201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H16">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I16">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J16">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>6.969696312215</v>
+        <v>8.002952497863557</v>
       </c>
       <c r="R16">
-        <v>62.727266809935</v>
+        <v>72.026572480772</v>
       </c>
       <c r="S16">
-        <v>0.03696486167000892</v>
+        <v>0.09237782029915068</v>
       </c>
       <c r="T16">
-        <v>0.03949187724196934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.0912215</v>
-      </c>
-      <c r="H17">
-        <v>0.182443</v>
-      </c>
-      <c r="I17">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J17">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.808665</v>
-      </c>
-      <c r="N17">
-        <v>5.425995</v>
-      </c>
-      <c r="O17">
-        <v>0.01261203239065773</v>
-      </c>
-      <c r="P17">
-        <v>0.01316260230515319</v>
-      </c>
-      <c r="Q17">
-        <v>0.1649891342975</v>
-      </c>
-      <c r="R17">
-        <v>0.989934805785</v>
-      </c>
-      <c r="S17">
-        <v>0.0008750453754596072</v>
-      </c>
-      <c r="T17">
-        <v>0.0006232438589436843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.0912215</v>
-      </c>
-      <c r="H18">
-        <v>0.182443</v>
-      </c>
-      <c r="I18">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J18">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>21.254561</v>
-      </c>
-      <c r="N18">
-        <v>63.763683</v>
-      </c>
-      <c r="O18">
-        <v>0.1482105374854993</v>
-      </c>
-      <c r="P18">
-        <v>0.1546805702623864</v>
-      </c>
-      <c r="Q18">
-        <v>1.9388729362615</v>
-      </c>
-      <c r="R18">
-        <v>11.633237617569</v>
-      </c>
-      <c r="S18">
-        <v>0.01028311230132397</v>
-      </c>
-      <c r="T18">
-        <v>0.007324062011369675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.0912215</v>
-      </c>
-      <c r="H19">
-        <v>0.182443</v>
-      </c>
-      <c r="I19">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J19">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>46.05851666666666</v>
-      </c>
-      <c r="N19">
-        <v>138.17555</v>
-      </c>
-      <c r="O19">
-        <v>0.3211714187346186</v>
-      </c>
-      <c r="P19">
-        <v>0.3351919441403484</v>
-      </c>
-      <c r="Q19">
-        <v>4.201526978108332</v>
-      </c>
-      <c r="R19">
-        <v>25.20916186865</v>
-      </c>
-      <c r="S19">
-        <v>0.02228344774167461</v>
-      </c>
-      <c r="T19">
-        <v>0.01587120205486109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.0912215</v>
-      </c>
-      <c r="H20">
-        <v>0.182443</v>
-      </c>
-      <c r="I20">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J20">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>17.995546</v>
-      </c>
-      <c r="N20">
-        <v>35.99109199999999</v>
-      </c>
-      <c r="O20">
-        <v>0.1254850450689161</v>
-      </c>
-      <c r="P20">
-        <v>0.08730867435819246</v>
-      </c>
-      <c r="Q20">
-        <v>1.641580699439</v>
-      </c>
-      <c r="R20">
-        <v>6.566322797755999</v>
-      </c>
-      <c r="S20">
-        <v>0.008706376972059849</v>
-      </c>
-      <c r="T20">
-        <v>0.004134030176157029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.0912215</v>
-      </c>
-      <c r="H21">
-        <v>0.182443</v>
-      </c>
-      <c r="I21">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J21">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>56.290605</v>
-      </c>
-      <c r="N21">
-        <v>168.871815</v>
-      </c>
-      <c r="O21">
-        <v>0.3925209663203081</v>
-      </c>
-      <c r="P21">
-        <v>0.4096562089339196</v>
-      </c>
-      <c r="Q21">
-        <v>5.134913424007499</v>
-      </c>
-      <c r="R21">
-        <v>30.809480544045</v>
-      </c>
-      <c r="S21">
-        <v>0.02723380702732315</v>
-      </c>
-      <c r="T21">
-        <v>0.01939705466876102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H22">
-        <v>1.117854</v>
-      </c>
-      <c r="I22">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J22">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.808665</v>
-      </c>
-      <c r="N22">
-        <v>5.425995</v>
-      </c>
-      <c r="O22">
-        <v>0.01261203239065773</v>
-      </c>
-      <c r="P22">
-        <v>0.01316260230515319</v>
-      </c>
-      <c r="Q22">
-        <v>0.67394113497</v>
-      </c>
-      <c r="R22">
-        <v>6.065470214729999</v>
-      </c>
-      <c r="S22">
-        <v>0.003574350977708192</v>
-      </c>
-      <c r="T22">
-        <v>0.003818703050791936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H23">
-        <v>1.117854</v>
-      </c>
-      <c r="I23">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J23">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>21.254561</v>
-      </c>
-      <c r="N23">
-        <v>63.763683</v>
-      </c>
-      <c r="O23">
-        <v>0.1482105374854993</v>
-      </c>
-      <c r="P23">
-        <v>0.1546805702623864</v>
-      </c>
-      <c r="Q23">
-        <v>7.919832010697998</v>
-      </c>
-      <c r="R23">
-        <v>71.27848809628199</v>
-      </c>
-      <c r="S23">
-        <v>0.04200405320560104</v>
-      </c>
-      <c r="T23">
-        <v>0.04487556121998452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.117854</v>
-      </c>
-      <c r="I24">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J24">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>46.05851666666666</v>
-      </c>
-      <c r="N24">
-        <v>138.17555</v>
-      </c>
-      <c r="O24">
-        <v>0.3211714187346186</v>
-      </c>
-      <c r="P24">
-        <v>0.3351919441403484</v>
-      </c>
-      <c r="Q24">
-        <v>17.1622323633</v>
-      </c>
-      <c r="R24">
-        <v>154.4600912697</v>
-      </c>
-      <c r="S24">
-        <v>0.09102255203660657</v>
-      </c>
-      <c r="T24">
-        <v>0.09724509409423593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H25">
-        <v>1.117854</v>
-      </c>
-      <c r="I25">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J25">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>17.995546</v>
-      </c>
-      <c r="N25">
-        <v>35.99109199999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1254850450689161</v>
-      </c>
-      <c r="P25">
-        <v>0.08730867435819246</v>
-      </c>
-      <c r="Q25">
-        <v>6.705464359427998</v>
-      </c>
-      <c r="R25">
-        <v>40.23278615656799</v>
-      </c>
-      <c r="S25">
-        <v>0.03556346666712339</v>
-      </c>
-      <c r="T25">
-        <v>0.02532978611696716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H26">
-        <v>1.117854</v>
-      </c>
-      <c r="I26">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J26">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>56.290605</v>
-      </c>
-      <c r="N26">
-        <v>168.871815</v>
-      </c>
-      <c r="O26">
-        <v>0.3925209663203081</v>
-      </c>
-      <c r="P26">
-        <v>0.4096562089339196</v>
-      </c>
-      <c r="Q26">
-        <v>20.97489265389</v>
-      </c>
-      <c r="R26">
-        <v>188.77403388501</v>
-      </c>
-      <c r="S26">
-        <v>0.1112435851954539</v>
-      </c>
-      <c r="T26">
-        <v>0.1188484904857582</v>
+        <v>0.09661200478359783</v>
       </c>
     </row>
   </sheetData>
